--- a/dados/veiculos.xlsx
+++ b/dados/veiculos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\combustivel-cotas\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{502F09E7-5357-47B6-BF2B-46464526988A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E11FB7-985D-45E1-AFAF-EB78FCAE90F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="360">
   <si>
     <t>cod_veiculo</t>
   </si>
@@ -47,9 +47,6 @@
     <t>tipocombustível</t>
   </si>
   <si>
-    <t xml:space="preserve">        </t>
-  </si>
-  <si>
     <t>AMBULANCIA DUCATO 2019 NOVA</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>AYK-0952</t>
   </si>
   <si>
-    <t>CAMINHAO BASC M.BENZ/LK</t>
-  </si>
-  <si>
     <t>AFK-6097</t>
   </si>
   <si>
@@ -488,9 +482,6 @@
     <t>SEP-0J41</t>
   </si>
   <si>
-    <t>I/PEUGEOT EXPERT MAIA A (NÃO UTILIZAR)</t>
-  </si>
-  <si>
     <t>IVECO/BUS 10-190E</t>
   </si>
   <si>
@@ -572,9 +563,6 @@
     <t>RHW-0I82</t>
   </si>
   <si>
-    <t>M. BENZ/ LK 1520</t>
-  </si>
-  <si>
     <t>MICRO-ÔNIBUS ESCOLAR CITYCLASS 70C16</t>
   </si>
   <si>
@@ -803,9 +791,6 @@
     <t>BCV-0D31</t>
   </si>
   <si>
-    <t>PEUGEOT EXPERT MAIA A (NÃO UTILIZAR ESTE VEICULO)</t>
-  </si>
-  <si>
     <t>RENAULT/KWID INTENS 2</t>
   </si>
   <si>
@@ -1125,6 +1110,9 @@
   </si>
   <si>
     <t>TBD-4D80</t>
+  </si>
+  <si>
+    <t>CAMINHAO BASC M.BENZ - LK 1520</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1158,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1364,25 +1362,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="lastColumn" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="11"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="6"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="4"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="3"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="2"/>
+      <tableStyleElement type="pageFieldValues" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1397,10 +1395,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A914906B-8909-477E-AAED-2CFF274C5D16}" name="Tabela1" displayName="Tabela1" ref="A1:D219" totalsRowShown="0">
-  <autoFilter ref="A1:D219" xr:uid="{A914906B-8909-477E-AAED-2CFF274C5D16}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D219">
-    <sortCondition ref="C1:C219"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A914906B-8909-477E-AAED-2CFF274C5D16}" name="Tabela1" displayName="Tabela1" ref="A1:D215" totalsRowShown="0">
+  <autoFilter ref="A1:D215" xr:uid="{A914906B-8909-477E-AAED-2CFF274C5D16}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D215">
+    <sortCondition ref="C1:C215"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1EA36280-D80B-403C-AD7D-D3A3826C3584}" name="cod_veiculo"/>
@@ -1670,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D219"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C211" sqref="C211:C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1703,10 +1701,7 @@
         <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -1717,10 +1712,7 @@
         <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1731,10 +1723,7 @@
         <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1745,10 +1734,7 @@
         <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1759,10 +1745,7 @@
         <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1773,10 +1756,7 @@
         <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1787,10 +1767,7 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1801,10 +1778,7 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1815,10 +1789,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1829,10 +1800,7 @@
         <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1843,10 +1811,7 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1857,10 +1822,7 @@
         <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1871,10 +1833,7 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1885,10 +1844,7 @@
         <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1899,10 +1855,7 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
+        <v>205</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1913,10 +1866,7 @@
         <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1927,10 +1877,7 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1941,10 +1888,7 @@
         <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1955,10 +1899,7 @@
         <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
+        <v>245</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1969,10 +1910,7 @@
         <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1983,10 +1921,7 @@
         <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1997,10 +1932,7 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>269</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2011,10 +1943,7 @@
         <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
+        <v>265</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2025,10 +1954,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2039,10 +1965,7 @@
         <v>194</v>
       </c>
       <c r="B26" t="s">
-        <v>272</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2053,10 +1976,7 @@
         <v>174</v>
       </c>
       <c r="B27" t="s">
-        <v>273</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
+        <v>268</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2067,10 +1987,7 @@
         <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2081,10 +1998,7 @@
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>275</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2095,10 +2009,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
+        <v>271</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2109,10 +2020,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
+        <v>271</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2123,10 +2031,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
+        <v>271</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2137,10 +2042,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
+        <v>271</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2151,10 +2053,7 @@
         <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2165,10 +2064,7 @@
         <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>277</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2179,10 +2075,7 @@
         <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2193,10 +2086,7 @@
         <v>212</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
+        <v>275</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2207,10 +2097,7 @@
         <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>289</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2221,10 +2108,7 @@
         <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>294</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
+        <v>289</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -2235,10 +2119,7 @@
         <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
+        <v>290</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2249,10 +2130,7 @@
         <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>296</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
+        <v>291</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2263,10 +2141,7 @@
         <v>213</v>
       </c>
       <c r="B42" t="s">
-        <v>297</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
+        <v>292</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2277,10 +2152,7 @@
         <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>298</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2291,10 +2163,7 @@
         <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>300</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2305,10 +2174,7 @@
         <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>302</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
+        <v>297</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2319,10 +2185,7 @@
         <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2333,10 +2196,7 @@
         <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>304</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2347,10 +2207,7 @@
         <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>305</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2361,10 +2218,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2375,10 +2232,10 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2389,10 +2246,10 @@
         <v>182</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -2403,10 +2260,10 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2417,10 +2274,10 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2431,10 +2288,10 @@
         <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2445,10 +2302,10 @@
         <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>359</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -2456,27 +2313,27 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2484,13 +2341,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C58" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2498,13 +2355,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>334</v>
+        <v>107</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2512,27 +2369,27 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2540,13 +2397,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2554,13 +2411,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -2568,13 +2425,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -2582,13 +2439,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -2596,13 +2453,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -2610,83 +2467,83 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>156</v>
+        <v>276</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="C68" t="s">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>349</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>350</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>354</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>355</v>
+        <v>181</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>307</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>308</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -2694,13 +2551,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C73" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -2708,27 +2565,27 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c r="C74" t="s">
-        <v>311</v>
+        <v>159</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -2736,69 +2593,69 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
+        <v>304</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s">
-        <v>308</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>309</v>
+        <v>169</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -2806,13 +2663,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>285</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2820,13 +2677,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="C82" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -2834,13 +2691,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -2848,41 +2705,41 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="C85" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -2890,13 +2747,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -2904,13 +2761,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C88" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -2918,13 +2775,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -2932,13 +2789,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -2946,13 +2803,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -2960,13 +2817,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -2974,27 +2831,27 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -3002,41 +2859,41 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="B96" t="s">
-        <v>70</v>
+        <v>315</v>
       </c>
       <c r="C96" t="s">
-        <v>71</v>
+        <v>316</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B97" t="s">
-        <v>320</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
-        <v>321</v>
+        <v>163</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -3044,13 +2901,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C98" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -3058,13 +2915,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B99" t="s">
-        <v>164</v>
+        <v>332</v>
       </c>
       <c r="C99" t="s">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -3072,13 +2929,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C100" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -3086,13 +2943,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -3100,13 +2957,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C102" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -3114,13 +2971,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B103" t="s">
-        <v>335</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
-        <v>336</v>
+        <v>128</v>
       </c>
       <c r="D103">
         <v>3</v>
@@ -3128,7 +2985,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
         <v>129</v>
@@ -3142,13 +2999,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C105" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -3156,13 +3013,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -3170,69 +3027,69 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="C107" t="s">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="C108" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="C111" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -3240,13 +3097,13 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C112" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D112">
         <v>3</v>
@@ -3254,13 +3111,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="C113" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -3268,13 +3125,13 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>345</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>346</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -3282,13 +3139,13 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="C115" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -3296,27 +3153,27 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="B116" t="s">
-        <v>324</v>
+        <v>60</v>
       </c>
       <c r="C116" t="s">
-        <v>325</v>
+        <v>61</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B117" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -3324,13 +3181,13 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -3338,13 +3195,13 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="C119" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -3352,13 +3209,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -3366,13 +3223,13 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -3380,13 +3237,13 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C122" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -3394,13 +3251,13 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C123" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -3408,41 +3265,41 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>104</v>
       </c>
       <c r="C124" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C125" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B126" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -3450,13 +3307,13 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -3464,41 +3321,41 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B128" t="s">
-        <v>189</v>
+        <v>287</v>
       </c>
       <c r="C128" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B129" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C129" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B130" t="s">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>307</v>
+        <v>17</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -3506,13 +3363,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -3520,27 +3377,27 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B132" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="C132" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B133" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="C133" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -3548,13 +3405,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B134" t="s">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="C134" t="s">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -3562,55 +3419,55 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B135" t="s">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="C135" t="s">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B136" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="C136" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B137" t="s">
-        <v>352</v>
+        <v>66</v>
       </c>
       <c r="C137" t="s">
-        <v>353</v>
+        <v>67</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B138" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="C138" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -3618,13 +3475,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B139" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C139" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -3632,21 +3489,21 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B140" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C140" t="s">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B141" t="s">
         <v>112</v>
@@ -3660,7 +3517,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B142" t="s">
         <v>114</v>
@@ -3674,13 +3531,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B143" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C143" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -3688,55 +3545,55 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B144" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="C144" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="D144">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B145" t="s">
-        <v>29</v>
+        <v>355</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B146" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="C146" t="s">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B147" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="C147" t="s">
-        <v>317</v>
+        <v>27</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -3744,27 +3601,27 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B149" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C149" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D149">
         <v>3</v>
@@ -3772,13 +3629,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="C150" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -3786,41 +3643,41 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="C151" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>254</v>
+        <v>343</v>
       </c>
       <c r="C152" t="s">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="C153" t="s">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="D153">
         <v>3</v>
@@ -3828,27 +3685,27 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B154" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="C154" t="s">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="C155" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -3856,13 +3713,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C156" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -3870,13 +3727,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="B157" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -3884,41 +3741,41 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="C158" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
+        <v>165</v>
+      </c>
+      <c r="B160" t="s">
         <v>164</v>
       </c>
-      <c r="B160" t="s">
-        <v>167</v>
-      </c>
       <c r="C160" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -3926,41 +3783,41 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="C161" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C162" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="C163" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -3968,13 +3825,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="C164" t="s">
-        <v>155</v>
+        <v>339</v>
       </c>
       <c r="D164">
         <v>2</v>
@@ -3982,13 +3839,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>343</v>
+        <v>149</v>
       </c>
       <c r="C165" t="s">
-        <v>345</v>
+        <v>150</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -3996,41 +3853,41 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B166" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="C166" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B167" t="s">
-        <v>152</v>
+        <v>323</v>
       </c>
       <c r="C167" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B168" t="s">
+        <v>325</v>
+      </c>
+      <c r="C168" t="s">
         <v>326</v>
-      </c>
-      <c r="C168" t="s">
-        <v>327</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -4038,41 +3895,41 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="B169" t="s">
-        <v>328</v>
+        <v>225</v>
       </c>
       <c r="C169" t="s">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="D169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>330</v>
+        <v>225</v>
       </c>
       <c r="C170" t="s">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B171" t="s">
+        <v>225</v>
+      </c>
+      <c r="C171" t="s">
         <v>229</v>
-      </c>
-      <c r="C171" t="s">
-        <v>231</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -4080,13 +3937,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B172" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C172" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D172">
         <v>2</v>
@@ -4094,13 +3951,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B173" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C173" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -4108,27 +3965,27 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="B174" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="C174" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="B175" t="s">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="C175" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="D175">
         <v>2</v>
@@ -4136,69 +3993,69 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="B176" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="C176" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="B177" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="C177" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="B178" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C178" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="B179" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="C179" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B180" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C180" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -4206,13 +4063,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C181" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -4220,27 +4077,27 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C182" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B183" t="s">
-        <v>322</v>
+        <v>174</v>
       </c>
       <c r="C183" t="s">
-        <v>323</v>
+        <v>175</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -4248,13 +4105,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>147</v>
+        <v>341</v>
       </c>
       <c r="C184" t="s">
-        <v>148</v>
+        <v>342</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -4262,13 +4119,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="B185" t="s">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="C185" t="s">
-        <v>178</v>
+        <v>314</v>
       </c>
       <c r="D185">
         <v>2</v>
@@ -4276,13 +4133,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B186" t="s">
-        <v>346</v>
+        <v>56</v>
       </c>
       <c r="C186" t="s">
-        <v>347</v>
+        <v>57</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -4290,13 +4147,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>318</v>
+        <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -4304,13 +4161,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B188" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C188" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D188">
         <v>2</v>
@@ -4318,13 +4175,13 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>334</v>
       </c>
       <c r="C189" t="s">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -4332,13 +4189,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B190" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="C190" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -4346,13 +4203,13 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B191" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C191" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D191">
         <v>2</v>
@@ -4360,13 +4217,13 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="C192" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -4374,27 +4231,27 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="C193" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B194" t="s">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="C194" t="s">
-        <v>291</v>
+        <v>63</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -4402,111 +4259,111 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B195" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="C195" t="s">
-        <v>288</v>
+        <v>148</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B196" t="s">
-        <v>64</v>
+        <v>353</v>
       </c>
       <c r="C196" t="s">
-        <v>65</v>
+        <v>354</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="C197" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B198" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="C198" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B199" t="s">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="C199" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B200" t="s">
-        <v>358</v>
+        <v>255</v>
       </c>
       <c r="C200" t="s">
-        <v>359</v>
+        <v>256</v>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B201" t="s">
-        <v>257</v>
+        <v>143</v>
       </c>
       <c r="C201" t="s">
-        <v>259</v>
+        <v>144</v>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B202" t="s">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="C202" t="s">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="D202">
         <v>3</v>
@@ -4514,13 +4371,13 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B203" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D203">
         <v>3</v>
@@ -4528,27 +4385,27 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B204" t="s">
-        <v>260</v>
+        <v>141</v>
       </c>
       <c r="C204" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B205" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="C205" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="D205">
         <v>2</v>
@@ -4556,41 +4413,41 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B206" t="s">
-        <v>83</v>
+        <v>357</v>
       </c>
       <c r="C206" t="s">
-        <v>84</v>
+        <v>358</v>
       </c>
       <c r="D206">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B207" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="C207" t="s">
-        <v>76</v>
+        <v>258</v>
       </c>
       <c r="D207">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B208" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C208" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D208">
         <v>2</v>
@@ -4598,41 +4455,38 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B209" t="s">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="C209" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="B210" t="s">
-        <v>362</v>
+        <v>71</v>
       </c>
       <c r="C210" t="s">
-        <v>363</v>
+        <v>72</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>262</v>
-      </c>
-      <c r="C211" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="D211">
         <v>2</v>
@@ -4640,13 +4494,10 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="B212" t="s">
-        <v>141</v>
-      </c>
-      <c r="C212" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -4654,88 +4505,41 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="B213" t="s">
-        <v>85</v>
-      </c>
-      <c r="C213" t="s">
-        <v>86</v>
+        <v>274</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="B214" t="s">
-        <v>73</v>
-      </c>
-      <c r="C214" t="s">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B215" t="s">
-        <v>208</v>
+        <v>296</v>
       </c>
       <c r="D215">
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216">
-        <v>19</v>
-      </c>
-      <c r="B216" t="s">
-        <v>250</v>
-      </c>
-      <c r="D216">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217">
-        <v>34</v>
-      </c>
-      <c r="B217" t="s">
-        <v>279</v>
-      </c>
-      <c r="D217">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218">
-        <v>42</v>
-      </c>
-      <c r="B218" t="s">
-        <v>299</v>
-      </c>
-      <c r="D218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219">
-        <v>67</v>
-      </c>
-      <c r="B219" t="s">
-        <v>301</v>
-      </c>
-      <c r="D219">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/dados/veiculos.xlsx
+++ b/dados/veiculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\combustivel-cotas\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E11FB7-985D-45E1-AFAF-EB78FCAE90F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B198C0E0-FEEF-49E9-8116-9E4DB8EDFC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1398,7 +1398,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A914906B-8909-477E-AAED-2CFF274C5D16}" name="Tabela1" displayName="Tabela1" ref="A1:D215" totalsRowShown="0">
   <autoFilter ref="A1:D215" xr:uid="{A914906B-8909-477E-AAED-2CFF274C5D16}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D215">
-    <sortCondition ref="C1:C215"/>
+    <sortCondition ref="A1:A215"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1EA36280-D80B-403C-AD7D-D3A3826C3584}" name="cod_veiculo"/>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C211" sqref="C211:C215"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1698,32 +1698,41 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>309</v>
+      </c>
+      <c r="C2" t="s">
+        <v>310</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1731,21 +1740,27 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>303</v>
+      </c>
+      <c r="C6" t="s">
+        <v>304</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1753,21 +1768,27 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>278</v>
+      </c>
+      <c r="C7" t="s">
+        <v>279</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1775,21 +1796,27 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1797,54 +1824,69 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>201</v>
+        <v>209</v>
+      </c>
+      <c r="C13" t="s">
+        <v>210</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>280</v>
+      </c>
+      <c r="C14" t="s">
+        <v>281</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
+        <v>183</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1852,21 +1894,27 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1874,32 +1922,38 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1907,10 +1961,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1918,10 +1972,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1929,43 +1983,52 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>230</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1973,21 +2036,21 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1995,10 +2058,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2006,10 +2072,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>276</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2017,10 +2086,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>271</v>
+        <v>193</v>
+      </c>
+      <c r="C31" t="s">
+        <v>194</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2028,98 +2100,110 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>271</v>
+        <v>225</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>271</v>
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>272</v>
+        <v>225</v>
+      </c>
+      <c r="C34" t="s">
+        <v>229</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>290</v>
+        <v>225</v>
+      </c>
+      <c r="C40" t="s">
+        <v>228</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2127,10 +2211,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>291</v>
+        <v>225</v>
+      </c>
+      <c r="C41" t="s">
+        <v>226</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2138,10 +2225,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>292</v>
+        <v>219</v>
+      </c>
+      <c r="C42" t="s">
+        <v>220</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2149,10 +2239,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2160,10 +2250,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>295</v>
+        <v>187</v>
+      </c>
+      <c r="C44" t="s">
+        <v>188</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2171,21 +2264,27 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>297</v>
+        <v>199</v>
+      </c>
+      <c r="C45" t="s">
+        <v>200</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>298</v>
+        <v>189</v>
+      </c>
+      <c r="C46" t="s">
+        <v>190</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2193,10 +2292,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>299</v>
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
+        <v>181</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2204,10 +2306,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>300</v>
+        <v>197</v>
+      </c>
+      <c r="C48" t="s">
+        <v>198</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2215,27 +2320,27 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2243,13 +2348,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -2257,13 +2362,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" t="s">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2271,13 +2373,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2285,69 +2387,63 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>193</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>327</v>
-      </c>
-      <c r="C57" t="s">
-        <v>328</v>
+        <v>171</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>327</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>329</v>
+        <v>101</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2355,13 +2451,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2369,13 +2465,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>305</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2383,13 +2479,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -2397,58 +2490,58 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>315</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>332</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>333</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2467,13 +2560,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2481,13 +2574,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" t="s">
-        <v>188</v>
+        <v>296</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -2495,55 +2585,49 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>349</v>
-      </c>
-      <c r="C70" t="s">
-        <v>350</v>
+        <v>208</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>351</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>308</v>
+        <v>39</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -2551,41 +2635,35 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>305</v>
-      </c>
-      <c r="C73" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -2593,55 +2671,55 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>304</v>
+        <v>157</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -2649,125 +2727,110 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>280</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
-      </c>
-      <c r="C81" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
-      </c>
-      <c r="C82" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="C84" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>221</v>
-      </c>
-      <c r="C85" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
-      </c>
-      <c r="C88" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -2775,13 +2838,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -2789,27 +2849,24 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>346</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
-      </c>
-      <c r="C91" t="s">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -2817,13 +2874,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" t="s">
-        <v>7</v>
+        <v>297</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -2831,153 +2885,147 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>319</v>
       </c>
       <c r="C93" t="s">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
-      </c>
-      <c r="C94" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="C95" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="C98" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>332</v>
-      </c>
-      <c r="C99" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>351</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>352</v>
+        <v>9</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="C101" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="D103">
         <v>3</v>
@@ -2985,55 +3033,49 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
-      </c>
-      <c r="C104" t="s">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="C105" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
-      </c>
-      <c r="C107" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3041,13 +3083,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>209</v>
-      </c>
-      <c r="C108" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -3055,27 +3094,24 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>94</v>
+        <v>287</v>
       </c>
       <c r="C110" t="s">
-        <v>95</v>
+        <v>288</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -3083,55 +3119,55 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="C111" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C114" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -3139,41 +3175,35 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>319</v>
-      </c>
-      <c r="C115" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" t="s">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -3181,27 +3211,24 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C118" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
-      </c>
-      <c r="C119" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -3209,13 +3236,13 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -3223,69 +3250,69 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="C121" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C122" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="C123" t="s">
-        <v>242</v>
+        <v>97</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="C124" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>243</v>
       </c>
       <c r="C125" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -3293,27 +3320,27 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="C127" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -3321,13 +3348,13 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="C128" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -3335,13 +3362,13 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="C129" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -3349,13 +3376,13 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -3363,27 +3390,27 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="C131" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="C132" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="D132">
         <v>3</v>
@@ -3391,13 +3418,13 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="C133" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -3405,13 +3432,13 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C134" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D134">
         <v>3</v>
@@ -3419,55 +3446,55 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>261</v>
+        <v>114</v>
       </c>
       <c r="C135" t="s">
-        <v>262</v>
+        <v>115</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>347</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>66</v>
+        <v>355</v>
       </c>
       <c r="C137" t="s">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>232</v>
+        <v>311</v>
       </c>
       <c r="C138" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -3475,13 +3502,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="C139" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -3489,13 +3516,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C140" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D140">
         <v>3</v>
@@ -3503,69 +3530,63 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>112</v>
-      </c>
-      <c r="C141" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>108</v>
-      </c>
-      <c r="C143" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="C145" t="s">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -3573,27 +3594,27 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="C146" t="s">
-        <v>312</v>
+        <v>99</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -3601,13 +3622,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C148" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D148">
         <v>3</v>
@@ -3615,41 +3636,38 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>116</v>
+        <v>250</v>
       </c>
       <c r="C149" t="s">
-        <v>117</v>
+        <v>251</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>77</v>
-      </c>
-      <c r="C150" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="D150">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="C151" t="s">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -3657,55 +3675,52 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>343</v>
-      </c>
-      <c r="C152" t="s">
-        <v>344</v>
+        <v>23</v>
       </c>
       <c r="D152">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="C153" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="D153">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="C154" t="s">
-        <v>238</v>
+        <v>344</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C155" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -3713,13 +3728,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>90</v>
-      </c>
-      <c r="C156" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -3727,41 +3739,41 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
+        <v>349</v>
       </c>
       <c r="C157" t="s">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="C158" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="C159" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="D159">
         <v>3</v>
@@ -3769,41 +3781,35 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
-      </c>
-      <c r="C160" t="s">
-        <v>165</v>
+        <v>263</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>151</v>
-      </c>
-      <c r="C162" t="s">
-        <v>152</v>
+        <v>290</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -3811,97 +3817,97 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>338</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>340</v>
+        <v>166</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>338</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>339</v>
+        <v>165</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="C166" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="C167" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C168" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="C169" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="D169">
         <v>2</v>
@@ -3909,13 +3915,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="C170" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -3923,13 +3929,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C171" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -3937,27 +3943,24 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="C172" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>225</v>
-      </c>
-      <c r="C173" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -3965,13 +3968,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B174" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C174" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -3979,13 +3982,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="D175">
         <v>2</v>
@@ -3993,41 +3996,41 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="C176" t="s">
-        <v>119</v>
+        <v>322</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="C177" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>88</v>
+        <v>325</v>
       </c>
       <c r="C178" t="s">
-        <v>89</v>
+        <v>326</v>
       </c>
       <c r="D178">
         <v>3</v>
@@ -4035,13 +4038,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="C179" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="D179">
         <v>2</v>
@@ -4049,27 +4052,24 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>92</v>
-      </c>
-      <c r="C180" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>317</v>
+        <v>145</v>
       </c>
       <c r="C181" t="s">
-        <v>318</v>
+        <v>146</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -4077,13 +4077,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>145</v>
+        <v>341</v>
       </c>
       <c r="C182" t="s">
-        <v>146</v>
+        <v>342</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -4091,13 +4091,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>174</v>
-      </c>
-      <c r="C183" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -4105,13 +4102,13 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>341</v>
+        <v>174</v>
       </c>
       <c r="C184" t="s">
-        <v>342</v>
+        <v>175</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -4119,13 +4116,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>313</v>
+        <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="D185">
         <v>2</v>
@@ -4133,13 +4130,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>56</v>
+        <v>334</v>
       </c>
       <c r="C186" t="s">
-        <v>57</v>
+        <v>335</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -4147,13 +4144,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -4161,13 +4158,13 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>52</v>
+        <v>285</v>
       </c>
       <c r="C188" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="D188">
         <v>2</v>
@@ -4175,13 +4172,13 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="C189" t="s">
-        <v>335</v>
+        <v>53</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -4189,13 +4186,13 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>239</v>
+        <v>336</v>
       </c>
       <c r="C190" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -4203,13 +4200,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>336</v>
-      </c>
-      <c r="C191" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="D191">
         <v>2</v>
@@ -4217,13 +4211,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>285</v>
-      </c>
-      <c r="C192" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -4231,41 +4222,41 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B193" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="C193" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B194" t="s">
-        <v>62</v>
+        <v>282</v>
       </c>
       <c r="C194" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>147</v>
+        <v>359</v>
       </c>
       <c r="C195" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="D195">
         <v>2</v>
@@ -4273,55 +4264,55 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B196" t="s">
-        <v>353</v>
+        <v>62</v>
       </c>
       <c r="C196" t="s">
-        <v>354</v>
+        <v>63</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>252</v>
+        <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="C198" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="D198">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>21</v>
+        <v>353</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>354</v>
       </c>
       <c r="D199">
         <v>3</v>
@@ -4329,41 +4320,41 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B200" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C200" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B201" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="C201" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B202" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="C202" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="D202">
         <v>3</v>
@@ -4371,27 +4362,27 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B203" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="C203" t="s">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B204" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C204" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D204">
         <v>2</v>
@@ -4399,13 +4390,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B205" t="s">
-        <v>223</v>
-      </c>
-      <c r="C205" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="D205">
         <v>2</v>
@@ -4413,80 +4401,80 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B206" t="s">
-        <v>357</v>
-      </c>
-      <c r="C206" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B207" t="s">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="C207" t="s">
-        <v>258</v>
+        <v>82</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B208" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C208" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B209" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="C209" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="D209">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="B210" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="C210" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="B211" t="s">
-        <v>204</v>
+        <v>257</v>
+      </c>
+      <c r="C211" t="s">
+        <v>258</v>
       </c>
       <c r="D211">
         <v>2</v>
@@ -4494,21 +4482,27 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="B212" t="s">
-        <v>246</v>
+        <v>357</v>
+      </c>
+      <c r="C212" t="s">
+        <v>358</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="B213" t="s">
-        <v>274</v>
+        <v>139</v>
+      </c>
+      <c r="C213" t="s">
+        <v>140</v>
       </c>
       <c r="D213">
         <v>2</v>
@@ -4516,21 +4510,27 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="B214" t="s">
-        <v>294</v>
+        <v>83</v>
+      </c>
+      <c r="C214" t="s">
+        <v>84</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c r="B215" t="s">
-        <v>296</v>
+        <v>313</v>
+      </c>
+      <c r="C215" t="s">
+        <v>314</v>
       </c>
       <c r="D215">
         <v>2</v>
